--- a/Module3/Day32/AAPL_Financials.xlsx
+++ b/Module3/Day32/AAPL_Financials.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CaptCorpMURICA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kzufel436\PycharmProjects\100DaysPython\Module3\Day32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E498E6B6-6531-4795-870E-83FD1E2BE967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED5314D0-B62D-45CA-9D96-E58A77A2264B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{080DBD0A-0065-4111-9C98-914BF4019296}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" activeTab="2" xr2:uid="{080DBD0A-0065-4111-9C98-914BF4019296}"/>
   </bookViews>
   <sheets>
     <sheet name="IncomeStatement" sheetId="1" r:id="rId1"/>
     <sheet name="BalanceSheet" sheetId="2" r:id="rId2"/>
     <sheet name="CashFlow" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -238,73 +233,73 @@
     <t>Net Tangible Assets</t>
   </si>
   <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>Change In Cash and Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Effect Of Exchange Rate Changes</t>
+  </si>
+  <si>
+    <t>Total Cash Flows From Financing Activities</t>
+  </si>
+  <si>
+    <t>Other Cash Flows from Financing Activities</t>
+  </si>
+  <si>
+    <t>Net Borrowings</t>
+  </si>
+  <si>
+    <t>Sale Purchase of Stock</t>
+  </si>
+  <si>
+    <t>Dividends Paid</t>
+  </si>
+  <si>
+    <t>Financing Activities, Cash Flows Provided By or Used In</t>
+  </si>
+  <si>
+    <t>Total Cash Flows From Investing Activities</t>
+  </si>
+  <si>
+    <t>Other Cash flows from Investing Activities</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Capital Expenditures</t>
+  </si>
+  <si>
+    <t>Investing Activities, Cash Flows Provided By or Used In</t>
+  </si>
+  <si>
+    <t>Total Cash Flow From Operating Activities</t>
+  </si>
+  <si>
+    <t>Changes In Other Operating Activities</t>
+  </si>
+  <si>
+    <t>Changes In Inventories</t>
+  </si>
+  <si>
+    <t>Changes In Liabilities</t>
+  </si>
+  <si>
+    <t>Changes In Accounts Receivables</t>
+  </si>
+  <si>
+    <t>Adjustments To Net Income</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Operating Activities, Cash Flows Provided By or Used In</t>
+  </si>
+  <si>
     <t>Cash Flow</t>
-  </si>
-  <si>
-    <t>Operating Activities, Cash Flows Provided By or Used In</t>
-  </si>
-  <si>
-    <t>Depreciation</t>
-  </si>
-  <si>
-    <t>Adjustments To Net Income</t>
-  </si>
-  <si>
-    <t>Changes In Accounts Receivables</t>
-  </si>
-  <si>
-    <t>Changes In Liabilities</t>
-  </si>
-  <si>
-    <t>Changes In Inventories</t>
-  </si>
-  <si>
-    <t>Changes In Other Operating Activities</t>
-  </si>
-  <si>
-    <t>Total Cash Flow From Operating Activities</t>
-  </si>
-  <si>
-    <t>Investing Activities, Cash Flows Provided By or Used In</t>
-  </si>
-  <si>
-    <t>Capital Expenditures</t>
-  </si>
-  <si>
-    <t>Investments</t>
-  </si>
-  <si>
-    <t>Other Cash flows from Investing Activities</t>
-  </si>
-  <si>
-    <t>Total Cash Flows From Investing Activities</t>
-  </si>
-  <si>
-    <t>Financing Activities, Cash Flows Provided By or Used In</t>
-  </si>
-  <si>
-    <t>Dividends Paid</t>
-  </si>
-  <si>
-    <t>Sale Purchase of Stock</t>
-  </si>
-  <si>
-    <t>Net Borrowings</t>
-  </si>
-  <si>
-    <t>Other Cash Flows from Financing Activities</t>
-  </si>
-  <si>
-    <t>Total Cash Flows From Financing Activities</t>
-  </si>
-  <si>
-    <t>Effect Of Exchange Rate Changes</t>
-  </si>
-  <si>
-    <t>Change In Cash and Cash Equivalents</t>
-  </si>
-  <si>
-    <t>AAPL</t>
   </si>
 </sst>
 </file>
@@ -370,12 +365,10 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -388,9 +381,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -399,20 +389,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,471 +724,471 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5428D5-42DB-4A2C-9FAA-2842C1971060}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" style="2" customWidth="1"/>
-    <col min="2" max="5" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="22.7265625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>90</v>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>43372</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>43008</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>42637</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>42273</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>265595000</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>229234000</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>215639000</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>233715000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>163756000</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>141048000</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>131376000</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>140089000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>101839000</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>88186000</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>84263000</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>93626000</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>14236000</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>11581000</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>10045000</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>8067000</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>16705000</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>15261000</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>14194000</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>14329000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>194697000</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>167890000</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>155615000</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>162485000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>70898000</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>61344000</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>60024000</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>71230000</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>2005000</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>2745000</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>1348000</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>1285000</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>70898000</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>61344000</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>60024000</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>71230000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>-3240000</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>-2323000</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>-1456000</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>-733000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>72903000</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>64089000</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>61372000</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>72515000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>13372000</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>15738000</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>15685000</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>19121000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>59531000</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>48351000</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>45687000</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <v>53394000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <v>59531000</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <v>48351000</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>45687000</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="6">
         <v>53394000</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="6">
         <v>59531000</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="6">
         <v>48351000</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <v>45687000</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <v>53394000</v>
       </c>
     </row>
@@ -1219,463 +1214,463 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="22.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>43372</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>43008</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>42637</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>42273</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>25913000</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>20289000</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>20484000</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>21120000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>40388000</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>53892000</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>46671000</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>20481000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>48995000</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>35673000</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>29299000</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>30343000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>3956000</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>4855000</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>2132000</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>2349000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>12087000</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>13936000</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>8283000</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>14691000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <v>131339000</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>128645000</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <v>106869000</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>89378000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>170799000</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>194714000</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>170430000</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>164065000</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>41304000</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>33783000</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>27010000</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>22471000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6">
         <v>5414000</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>5116000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6">
         <v>3206000</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>3893000</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>22283000</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>18177000</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>8757000</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>5422000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="11">
         <v>365725000</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="11">
         <v>375319000</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <v>321686000</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>290345000</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>55888000</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>44242000</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>37294000</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>35490000</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>8784000</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>6496000</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>3500000</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <v>2513000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="6">
         <v>40230000</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>38099000</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>8243000</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <v>10939000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="11">
         <v>116866000</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <v>100814000</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <v>79006000</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <v>80610000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>93735000</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>97207000</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>75427000</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="6">
         <v>53329000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>47977000</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>43251000</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>39004000</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="6">
         <v>37051000</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="11">
         <v>258578000</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="11">
         <v>241272000</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="11">
         <v>193437000</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="11">
         <v>170990000</v>
       </c>
     </row>
@@ -1689,172 +1684,172 @@
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="B32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="B34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="6">
         <v>40201000</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="6">
         <v>35867000</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="6">
         <v>31251000</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="6">
         <v>27416000</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="6">
         <v>70400000</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="6">
         <v>98330000</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="6">
         <v>96364000</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="6">
         <v>92284000</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="6">
         <v>-3454000</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="6">
         <v>-150000</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="6">
         <v>634000</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="6">
         <v>-345000</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="B38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="6">
         <v>-3454000</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="6">
         <v>-150000</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="6">
         <v>634000</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="6">
         <v>-345000</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="6">
         <v>107147000</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="6">
         <v>134047000</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="6">
         <v>128249000</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="6">
         <v>119355000</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="11">
         <v>107147000</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="11">
         <v>134047000</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="11">
         <v>119629000</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="11">
         <v>110346000</v>
       </c>
     </row>
@@ -1869,11 +1864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23254DE7-2635-44AF-BAC8-4A272056A010}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E1F346-F6B6-4086-A143-D0ED7F9234F9}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1883,8 +1878,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>68</v>
+      <c r="A1" s="21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1893,190 +1888,190 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="20">
         <v>43372</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="20">
         <v>43008</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <v>42637</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="20">
         <v>42273</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="18">
         <v>59531000</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>48351000</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>45687000</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>53394000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="A6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1">
+        <v>88</v>
+      </c>
+      <c r="B7" s="17">
         <v>10903000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="17">
         <v>10157000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="17">
         <v>10505000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="17">
         <v>11257000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="1">
+        <v>87</v>
+      </c>
+      <c r="B8" s="17">
         <v>-27694000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="17">
         <v>10640000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="17">
         <v>9634000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="17">
         <v>5353000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="1">
+        <v>86</v>
+      </c>
+      <c r="B9" s="17">
         <v>-5322000</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="17">
         <v>-2093000</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="17">
         <v>527000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="17">
         <v>417000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="1">
+        <v>85</v>
+      </c>
+      <c r="B10" s="17">
         <v>9131000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="17">
         <v>8340000</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="17">
         <v>563000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="17">
         <v>6043000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="1">
+        <v>84</v>
+      </c>
+      <c r="B11" s="17">
         <v>828000</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="17">
         <v>-2723000</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="17">
         <v>217000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="17">
         <v>-238000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1">
+        <v>83</v>
+      </c>
+      <c r="B12" s="17">
         <v>30057000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="17">
         <v>-8447000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="17">
         <v>-902000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="17">
         <v>5040000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="A13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="15">
         <v>77434000</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="15">
         <v>64225000</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>66231000</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>81266000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="1">
+        <v>80</v>
+      </c>
+      <c r="B15" s="17">
         <v>-13313000</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="17">
         <v>-12451000</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="17">
         <v>-12734000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="17">
         <v>-11247000</v>
       </c>
     </row>
@@ -2084,82 +2079,82 @@
       <c r="A16" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="17">
         <v>30845000</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="17">
         <v>-33542000</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="17">
         <v>-32022000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="17">
         <v>-44417000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="1">
+        <v>78</v>
+      </c>
+      <c r="B17" s="17">
         <v>-745000</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="17">
         <v>-124000</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="17">
         <v>-924000</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="17">
         <v>-26000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="18">
+      <c r="A18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="15">
         <v>16066000</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="15">
         <v>-46446000</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>-45977000</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="15">
         <v>-56274000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="1">
+        <v>75</v>
+      </c>
+      <c r="B20" s="17">
         <v>-13712000</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="17">
         <v>-12769000</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="17">
         <v>-12150000</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="17">
         <v>-11561000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -2176,24 +2171,24 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="1">
+        <v>73</v>
+      </c>
+      <c r="B22" s="17">
         <v>432000</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="17">
         <v>29014000</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="17">
         <v>22057000</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="17">
         <v>29305000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -2204,30 +2199,30 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="17">
         <v>749000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="18">
+      <c r="A24" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="15">
         <v>-87876000</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="15">
         <v>-17974000</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="15">
         <v>-20890000</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="15">
         <v>-17716000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -2243,19 +2238,19 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="18">
+      <c r="A26" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="15">
         <v>5624000</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="15">
         <v>-195000</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <v>-636000</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="15">
         <v>7276000</v>
       </c>
     </row>
